--- a/public/macros.xlsx
+++ b/public/macros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clevi\Downloads\micro-region-insights-hub-main\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7871335-6317-4221-98A0-88237448F21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B5DCC1-8481-4080-A3E4-396291F11E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Detalhamento dos eixos" sheetId="27" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>A microrregião se encontra em estágio inicial de maturidade digital. As ações em saúde digital ainda não foram institucionalizadas e ocorrem de forma pontual, sem planejamento, coordenação ou visão estratégica. Há ausência generalizada de governança, infraestrutura tecnológica, qualificação de profissionais e segurança da informação. Os municípios, em sua maioria, não possuem diagnóstico interno nem mecanismos de avaliação, o que dificulta a priorização de ações e o uso da tecnologia de forma integrada à atenção à saúde. </t>
   </si>
@@ -1338,6 +1338,21 @@
 Checklist de requisitos mínimos de cibersegurança (PDF): Orientar a implantação de rotinas de segurança digital 
 Plano de resposta a incidentes de segurança (Word): Preparar a rede para lidar com falhas técnicas e ataques virtuais 
 Roteiro de sensibilização sobre segurança digital para servidores (PPT): Apoiar ações formativas sobre proteção de dados e boas práticas em TI</t>
+  </si>
+  <si>
+    <t>evolucao1_recomendacoes</t>
+  </si>
+  <si>
+    <t>evolucao1_ferramentas</t>
+  </si>
+  <si>
+    <t>evolucao2_situacao</t>
+  </si>
+  <si>
+    <t>evolucao2_recomendacoes</t>
+  </si>
+  <si>
+    <t>evolucao2_ferramentas</t>
   </si>
 </sst>
 </file>
@@ -1960,33 +1975,33 @@
   <sheetPr codeName="Planilha18"/>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="37" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="36" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="20" customWidth="1"/>
-    <col min="2" max="2" width="31.453125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="48.7265625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" style="14" customWidth="1"/>
     <col min="4" max="4" width="46" style="14" customWidth="1"/>
-    <col min="5" max="5" width="32.54296875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="46.7265625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="44.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.453125" style="14" customWidth="1"/>
-    <col min="9" max="9" width="48.7265625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="46.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.1796875" style="14" customWidth="1"/>
-    <col min="12" max="12" width="47.7265625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="45.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.7265625" style="14" customWidth="1"/>
-    <col min="15" max="15" width="43.54296875" style="14" customWidth="1"/>
-    <col min="16" max="16" width="41.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.1796875" style="14"/>
+    <col min="5" max="5" width="32.5703125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="46.7109375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="44.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="48.7109375" style="14" customWidth="1"/>
+    <col min="10" max="10" width="46.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.140625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="47.7109375" style="14" customWidth="1"/>
+    <col min="13" max="13" width="45.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.7109375" style="14" customWidth="1"/>
+    <col min="15" max="15" width="43.5703125" style="14" customWidth="1"/>
+    <col min="16" max="16" width="41.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="15" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>52</v>
       </c>
@@ -2012,19 +2027,19 @@
         <v>59</v>
       </c>
       <c r="I1" s="37" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="K1" s="36" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="M1" s="38" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="N1" s="39" t="s">
         <v>60</v>
@@ -2036,7 +2051,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
         <v>63</v>
       </c>
@@ -2086,7 +2101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>64</v>
       </c>
@@ -2136,7 +2151,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>65</v>
       </c>
@@ -2186,7 +2201,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>66</v>
       </c>
@@ -2236,7 +2251,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>67</v>
       </c>
@@ -2286,7 +2301,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>68</v>
       </c>
@@ -2336,7 +2351,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>69</v>
       </c>
@@ -2386,7 +2401,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="409.6" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>70</v>
       </c>
